--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lama3-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lama3-Sdc2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>5.624269666666667</v>
+        <v>3.602172</v>
       </c>
       <c r="H2">
-        <v>16.872809</v>
+        <v>10.806516</v>
       </c>
       <c r="I2">
-        <v>0.7456305897517299</v>
+        <v>0.4431725406574782</v>
       </c>
       <c r="J2">
-        <v>0.74563058975173</v>
+        <v>0.4431725406574781</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="N2">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="O2">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="P2">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="Q2">
-        <v>7.432164904424889</v>
+        <v>1.874381795132</v>
       </c>
       <c r="R2">
-        <v>66.88948413982401</v>
+        <v>16.869436156188</v>
       </c>
       <c r="S2">
-        <v>0.007618719619841691</v>
+        <v>0.001819637369302968</v>
       </c>
       <c r="T2">
-        <v>0.007618719619841694</v>
+        <v>0.001819637369302968</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>5.624269666666667</v>
+        <v>3.602172</v>
       </c>
       <c r="H3">
-        <v>16.872809</v>
+        <v>10.806516</v>
       </c>
       <c r="I3">
-        <v>0.7456305897517299</v>
+        <v>0.4431725406574782</v>
       </c>
       <c r="J3">
-        <v>0.74563058975173</v>
+        <v>0.4431725406574781</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>317.889679</v>
       </c>
       <c r="O3">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="P3">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="Q3">
-        <v>595.9657596487012</v>
+        <v>381.697766927596</v>
       </c>
       <c r="R3">
-        <v>5363.691836838311</v>
+        <v>3435.279902348364</v>
       </c>
       <c r="S3">
-        <v>0.6109250917032455</v>
+        <v>0.3705496512422303</v>
       </c>
       <c r="T3">
-        <v>0.6109250917032456</v>
+        <v>0.3705496512422303</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>5.624269666666667</v>
+        <v>3.602172</v>
       </c>
       <c r="H4">
-        <v>16.872809</v>
+        <v>10.806516</v>
       </c>
       <c r="I4">
-        <v>0.7456305897517299</v>
+        <v>0.4431725406574782</v>
       </c>
       <c r="J4">
-        <v>0.74563058975173</v>
+        <v>0.4431725406574781</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="N4">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="O4">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="P4">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="Q4">
-        <v>123.9748857529694</v>
+        <v>72.93339261432</v>
       </c>
       <c r="R4">
-        <v>1115.773971776725</v>
+        <v>656.40053352888</v>
       </c>
       <c r="S4">
-        <v>0.1270867784286427</v>
+        <v>0.07080325204594494</v>
       </c>
       <c r="T4">
-        <v>0.1270867784286427</v>
+        <v>0.07080325204594495</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.420254</v>
       </c>
       <c r="I5">
-        <v>0.01857155129685422</v>
+        <v>0.01723451229808644</v>
       </c>
       <c r="J5">
-        <v>0.01857155129685422</v>
+        <v>0.01723451229808643</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="N5">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="O5">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="P5">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="Q5">
-        <v>0.1851142290382222</v>
+        <v>0.07289272943577779</v>
       </c>
       <c r="R5">
-        <v>1.666028061344</v>
+        <v>0.6560345649220001</v>
       </c>
       <c r="S5">
-        <v>0.0001897607799102657</v>
+        <v>7.076377650290339E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001897607799102657</v>
+        <v>7.076377650290339E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.420254</v>
       </c>
       <c r="I6">
-        <v>0.01857155129685422</v>
+        <v>0.01723451229808644</v>
       </c>
       <c r="J6">
-        <v>0.01857155129685422</v>
+        <v>0.01723451229808643</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>317.889679</v>
       </c>
       <c r="O6">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="P6">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="Q6">
         <v>14.84382323982956</v>
@@ -818,10 +818,10 @@
         <v>133.594409158466</v>
       </c>
       <c r="S6">
-        <v>0.01521641793542828</v>
+        <v>0.01441028478865457</v>
       </c>
       <c r="T6">
-        <v>0.01521641793542828</v>
+        <v>0.01441028478865457</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.420254</v>
       </c>
       <c r="I7">
-        <v>0.01857155129685422</v>
+        <v>0.01723451229808644</v>
       </c>
       <c r="J7">
-        <v>0.01857155129685422</v>
+        <v>0.01723451229808643</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="N7">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="O7">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="P7">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="Q7">
-        <v>3.087864127261111</v>
+        <v>2.83630265108</v>
       </c>
       <c r="R7">
-        <v>27.79077714535</v>
+        <v>25.52672385972</v>
       </c>
       <c r="S7">
-        <v>0.003165372581515669</v>
+        <v>0.002753463732928962</v>
       </c>
       <c r="T7">
-        <v>0.003165372581515669</v>
+        <v>0.002753463732928961</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.778616333333334</v>
+        <v>4.385891333333333</v>
       </c>
       <c r="H8">
-        <v>5.335849000000001</v>
+        <v>13.157674</v>
       </c>
       <c r="I8">
-        <v>0.2357978589514158</v>
+        <v>0.5395929470444354</v>
       </c>
       <c r="J8">
-        <v>0.2357978589514158</v>
+        <v>0.5395929470444354</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="N8">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="O8">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="P8">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="Q8">
-        <v>2.350344253473778</v>
+        <v>2.282188321553556</v>
       </c>
       <c r="R8">
-        <v>21.153098281264</v>
+        <v>20.539694893982</v>
       </c>
       <c r="S8">
-        <v>0.00240934022691851</v>
+        <v>0.002215533230460775</v>
       </c>
       <c r="T8">
-        <v>0.00240934022691851</v>
+        <v>0.002215533230460776</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.778616333333334</v>
+        <v>4.385891333333333</v>
       </c>
       <c r="H9">
-        <v>5.335849000000001</v>
+        <v>13.157674</v>
       </c>
       <c r="I9">
-        <v>0.2357978589514158</v>
+        <v>0.5395929470444354</v>
       </c>
       <c r="J9">
-        <v>0.2357978589514158</v>
+        <v>0.5395929470444354</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>317.889679</v>
       </c>
       <c r="O9">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="P9">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="Q9">
-        <v>188.4679250891635</v>
+        <v>464.7431960274051</v>
       </c>
       <c r="R9">
-        <v>1696.211325802471</v>
+        <v>4182.688764246646</v>
       </c>
       <c r="S9">
-        <v>0.1931986570605802</v>
+        <v>0.4511696009943409</v>
       </c>
       <c r="T9">
-        <v>0.1931986570605802</v>
+        <v>0.4511696009943409</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.778616333333334</v>
+        <v>4.385891333333333</v>
       </c>
       <c r="H10">
-        <v>5.335849000000001</v>
+        <v>13.157674</v>
       </c>
       <c r="I10">
-        <v>0.2357978589514158</v>
+        <v>0.5395929470444354</v>
       </c>
       <c r="J10">
-        <v>0.2357978589514158</v>
+        <v>0.5395929470444354</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="N10">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="O10">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="P10">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="Q10">
-        <v>39.20575822141389</v>
+        <v>88.80140497948001</v>
       </c>
       <c r="R10">
-        <v>352.851823992725</v>
+        <v>799.21264481532</v>
       </c>
       <c r="S10">
-        <v>0.04018986166391707</v>
+        <v>0.08620781281963369</v>
       </c>
       <c r="T10">
-        <v>0.04018986166391708</v>
+        <v>0.0862078128196337</v>
       </c>
     </row>
   </sheetData>
